--- a/Code/Results/Cases/Case_6_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.736267062251216</v>
+        <v>3.639297129245051</v>
       </c>
       <c r="C2">
-        <v>1.041696738485371</v>
+        <v>0.9954155328274794</v>
       </c>
       <c r="D2">
-        <v>0.0178428862215334</v>
+        <v>0.03898913623710598</v>
       </c>
       <c r="E2">
-        <v>1.467511952820317</v>
+        <v>1.441922359377998</v>
       </c>
       <c r="F2">
-        <v>2.06182011944513</v>
+        <v>0.4605004832323445</v>
       </c>
       <c r="G2">
-        <v>0.0007571769031520029</v>
+        <v>0.0007686809951868507</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.635251967930898</v>
+        <v>1.208600237614888</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.215645030492396</v>
+        <v>3.163926660293214</v>
       </c>
       <c r="C3">
-        <v>0.8999073733372711</v>
+        <v>0.8738301893889968</v>
       </c>
       <c r="D3">
-        <v>0.01789610815375653</v>
+        <v>0.03462429524202548</v>
       </c>
       <c r="E3">
-        <v>1.248792227394887</v>
+        <v>1.235854890260796</v>
       </c>
       <c r="F3">
-        <v>1.807740511052174</v>
+        <v>0.4140919297068777</v>
       </c>
       <c r="G3">
-        <v>0.0007670812503010607</v>
+        <v>0.0007740569087990035</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4374335222805</v>
+        <v>1.104349497267947</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.901371602009476</v>
+        <v>2.873012578389364</v>
       </c>
       <c r="C4">
-        <v>0.8142165763509013</v>
+        <v>0.7993378641015738</v>
       </c>
       <c r="D4">
-        <v>0.01807328356151316</v>
+        <v>0.03195374705863685</v>
       </c>
       <c r="E4">
-        <v>1.118867726201344</v>
+        <v>1.112018506115746</v>
       </c>
       <c r="F4">
-        <v>1.658307730217572</v>
+        <v>0.3874158420567042</v>
       </c>
       <c r="G4">
-        <v>0.0007732699565429203</v>
+        <v>0.0007774440430512226</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.321461508305205</v>
+        <v>1.0464774109318</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.774424022443554</v>
+        <v>2.754637414378806</v>
       </c>
       <c r="C5">
-        <v>0.7795744691919424</v>
+        <v>0.7690066449737571</v>
       </c>
       <c r="D5">
-        <v>0.01817729564609394</v>
+        <v>0.03086722398403907</v>
       </c>
       <c r="E5">
-        <v>1.066833558129545</v>
+        <v>1.062125557461087</v>
       </c>
       <c r="F5">
-        <v>1.598851742730304</v>
+        <v>0.3769626004365563</v>
       </c>
       <c r="G5">
-        <v>0.0007758222432976725</v>
+        <v>0.0007788469445050105</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.275404661415436</v>
+        <v>1.024306193568918</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.753405865620721</v>
+        <v>2.734989976010297</v>
       </c>
       <c r="C6">
-        <v>0.773837145209427</v>
+        <v>0.7639712490242232</v>
       </c>
       <c r="D6">
-        <v>0.01819636722417428</v>
+        <v>0.03068689589297691</v>
       </c>
       <c r="E6">
-        <v>1.0582433282826</v>
+        <v>1.05387249602056</v>
       </c>
       <c r="F6">
-        <v>1.58906023935387</v>
+        <v>0.3752509494558538</v>
       </c>
       <c r="G6">
-        <v>0.0007762479713513404</v>
+        <v>0.0007790812866859769</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.26782478060764</v>
+        <v>1.020706307984739</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.89965529196968</v>
+        <v>2.871415508127086</v>
       </c>
       <c r="C7">
-        <v>0.8137483389500062</v>
+        <v>0.7989287250678103</v>
       </c>
       <c r="D7">
-        <v>0.01807456304021571</v>
+        <v>0.03193908754555963</v>
       </c>
       <c r="E7">
-        <v>1.118162516374923</v>
+        <v>1.111343450545817</v>
       </c>
       <c r="F7">
-        <v>1.657500324328112</v>
+        <v>0.3872732262943899</v>
       </c>
       <c r="G7">
-        <v>0.0007733042506362193</v>
+        <v>0.0007774628703091108</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.320835720129395</v>
+        <v>1.046172851185815</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.555487836088275</v>
+        <v>3.475146169237291</v>
       </c>
       <c r="C8">
-        <v>0.9924810266659279</v>
+        <v>0.9534495003954078</v>
       </c>
       <c r="D8">
-        <v>0.01782832302820481</v>
+        <v>0.03748176335503928</v>
       </c>
       <c r="E8">
-        <v>1.391068966080269</v>
+        <v>1.370245579812007</v>
       </c>
       <c r="F8">
-        <v>1.972712557355678</v>
+        <v>0.4440963412042862</v>
       </c>
       <c r="G8">
-        <v>0.0007605717638276665</v>
+        <v>0.0007705172717569716</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.565791255064426</v>
+        <v>1.171298389780702</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.896635246564301</v>
+        <v>4.670153159864242</v>
       </c>
       <c r="C9">
-        <v>1.357350040405436</v>
+        <v>1.258541205769177</v>
       </c>
       <c r="D9">
-        <v>0.01873487671074514</v>
+        <v>0.04845951825788575</v>
       </c>
       <c r="E9">
-        <v>1.971007306287461</v>
+        <v>1.904628270821078</v>
       </c>
       <c r="F9">
-        <v>2.654165242247444</v>
+        <v>0.5719243957679723</v>
       </c>
       <c r="G9">
-        <v>0.0007362809840958158</v>
+        <v>0.0007575363395386711</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.098993126469821</v>
+        <v>1.47185203281046</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.936010570894325</v>
+        <v>5.560268806891031</v>
       </c>
       <c r="C10">
-        <v>1.640091340127981</v>
+        <v>1.485214488906252</v>
       </c>
       <c r="D10">
-        <v>0.02066555426238281</v>
+        <v>0.05664530721050909</v>
       </c>
       <c r="E10">
-        <v>2.441744227921319</v>
+        <v>2.322005527160314</v>
       </c>
       <c r="F10">
-        <v>3.21197548122791</v>
+        <v>0.678858643079522</v>
       </c>
       <c r="G10">
-        <v>0.0007185567662624473</v>
+        <v>0.0007483187425689126</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.538400195256955</v>
+        <v>1.736287612921245</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.426375668794549</v>
+        <v>5.969211083351581</v>
       </c>
       <c r="C11">
-        <v>1.773596749609567</v>
+        <v>1.58920392041847</v>
       </c>
       <c r="D11">
-        <v>0.02194256434547626</v>
+        <v>0.06040982474318923</v>
       </c>
       <c r="E11">
-        <v>2.67075096489144</v>
+        <v>2.519515414215093</v>
       </c>
       <c r="F11">
-        <v>3.483397292664279</v>
+        <v>0.7310970168232984</v>
       </c>
       <c r="G11">
-        <v>0.0007104373922397349</v>
+        <v>0.0007441769524360651</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.753031412330941</v>
+        <v>1.868589470172623</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.615197901076215</v>
+        <v>6.124773827319018</v>
       </c>
       <c r="C12">
-        <v>1.825034563560791</v>
+        <v>1.628738126228541</v>
       </c>
       <c r="D12">
-        <v>0.02249715410546926</v>
+        <v>0.06184261659727497</v>
       </c>
       <c r="E12">
-        <v>2.760176568876631</v>
+        <v>2.59562948098278</v>
       </c>
       <c r="F12">
-        <v>3.589273758047256</v>
+        <v>0.75146764550135</v>
       </c>
       <c r="G12">
-        <v>0.0007073458931555078</v>
+        <v>0.0007426142563991545</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.836891029821075</v>
+        <v>1.920657000486727</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.574381247951806</v>
+        <v>6.091237065251903</v>
       </c>
       <c r="C13">
-        <v>1.813913965820689</v>
+        <v>1.620216287773133</v>
       </c>
       <c r="D13">
-        <v>0.0223742992240048</v>
+        <v>0.06153369239733308</v>
       </c>
       <c r="E13">
-        <v>2.740786183686026</v>
+        <v>2.579174270918713</v>
       </c>
       <c r="F13">
-        <v>3.566323577595881</v>
+        <v>0.747053019755711</v>
       </c>
       <c r="G13">
-        <v>0.0007080126136885718</v>
+        <v>0.0007429505858455573</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.818706965903132</v>
+        <v>1.909351657525747</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.44184346599684</v>
+        <v>5.98199441198517</v>
       </c>
       <c r="C14">
-        <v>1.777809712363648</v>
+        <v>1.592453118870594</v>
       </c>
       <c r="D14">
-        <v>0.021986676736649</v>
+        <v>0.06052754737640242</v>
       </c>
       <c r="E14">
-        <v>2.678050056840803</v>
+        <v>2.525749484437711</v>
       </c>
       <c r="F14">
-        <v>3.492042178137496</v>
+        <v>0.7327606687664314</v>
       </c>
       <c r="G14">
-        <v>0.0007101834480177649</v>
+        <v>0.0007440482843729558</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.759875795252626</v>
+        <v>1.872832176201626</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.361088378353315</v>
+        <v>5.915175981731011</v>
       </c>
       <c r="C15">
-        <v>1.755815733896384</v>
+        <v>1.575468599796352</v>
       </c>
       <c r="D15">
-        <v>0.02175895978502851</v>
+        <v>0.05991224352290203</v>
       </c>
       <c r="E15">
-        <v>2.639994076968435</v>
+        <v>2.493204529720103</v>
       </c>
       <c r="F15">
-        <v>3.446964226669451</v>
+        <v>0.7240852042093451</v>
       </c>
       <c r="G15">
-        <v>0.0007115106571407124</v>
+        <v>0.000744721346750212</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.724191939522882</v>
+        <v>1.850726843422706</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.904366273589972</v>
+        <v>5.533634919427698</v>
       </c>
       <c r="C16">
-        <v>1.631479222214296</v>
+        <v>1.478438606472082</v>
       </c>
       <c r="D16">
-        <v>0.02059121580505874</v>
+        <v>0.05640022152640967</v>
       </c>
       <c r="E16">
-        <v>2.427122620471124</v>
+        <v>2.309269822762218</v>
       </c>
       <c r="F16">
-        <v>3.194637710675892</v>
+        <v>0.6755230432628565</v>
       </c>
       <c r="G16">
-        <v>0.0007190855446045563</v>
+        <v>0.0007485903130272879</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.524707585417644</v>
+        <v>1.727902952230664</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.629070492641347</v>
+        <v>5.300687919728375</v>
       </c>
       <c r="C17">
-        <v>1.556569918973196</v>
+        <v>1.419157990854501</v>
       </c>
       <c r="D17">
-        <v>0.01998568847437809</v>
+        <v>0.05425707574407568</v>
       </c>
       <c r="E17">
-        <v>2.300702095041942</v>
+        <v>2.198537140315693</v>
       </c>
       <c r="F17">
-        <v>3.044728077442386</v>
+        <v>0.6467009445062075</v>
       </c>
       <c r="G17">
-        <v>0.0007237123693545235</v>
+        <v>0.0007509758215054918</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.406406138672381</v>
+        <v>1.655792619796131</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.472336362745068</v>
+        <v>5.167073336104124</v>
       </c>
       <c r="C18">
-        <v>1.513931089611447</v>
+        <v>1.385141676507715</v>
       </c>
       <c r="D18">
-        <v>0.01967394855126514</v>
+        <v>0.05302813720697941</v>
       </c>
       <c r="E18">
-        <v>2.22934655828999</v>
+        <v>2.135550865997402</v>
       </c>
       <c r="F18">
-        <v>2.960128147816533</v>
+        <v>0.630456663852371</v>
       </c>
       <c r="G18">
-        <v>0.0007263688947433876</v>
+        <v>0.0007523528468003891</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.339717123906965</v>
+        <v>1.615430967274676</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.419528668169335</v>
+        <v>5.121893730647571</v>
       </c>
       <c r="C19">
-        <v>1.499566235896168</v>
+        <v>1.373637281602214</v>
       </c>
       <c r="D19">
-        <v>0.01957431111154762</v>
+        <v>0.05261264338034977</v>
       </c>
       <c r="E19">
-        <v>2.205404981815022</v>
+        <v>2.114339516159731</v>
       </c>
       <c r="F19">
-        <v>2.931747987866544</v>
+        <v>0.625011828509713</v>
       </c>
       <c r="G19">
-        <v>0.0007272677774152544</v>
+        <v>0.000752819980718879</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.317357506786934</v>
+        <v>1.601949714868738</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.658205700527674</v>
+        <v>5.325446324771519</v>
       </c>
       <c r="C20">
-        <v>1.564496699704989</v>
+        <v>1.425459995105768</v>
       </c>
       <c r="D20">
-        <v>0.02004627729343511</v>
+        <v>0.05448482054286785</v>
       </c>
       <c r="E20">
-        <v>2.314015537008444</v>
+        <v>2.210250434711114</v>
       </c>
       <c r="F20">
-        <v>3.060514481841437</v>
+        <v>0.649734100568125</v>
       </c>
       <c r="G20">
-        <v>0.0007232203798077689</v>
+        <v>0.0007507213798153807</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.418856263544654</v>
+        <v>1.66335190917593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.480682523975076</v>
+        <v>6.014061404798383</v>
       </c>
       <c r="C21">
-        <v>1.788388826678784</v>
+        <v>1.600603352844814</v>
       </c>
       <c r="D21">
-        <v>0.02209847716198965</v>
+        <v>0.06082286766924483</v>
       </c>
       <c r="E21">
-        <v>2.696398485106386</v>
+        <v>2.541403832657394</v>
       </c>
       <c r="F21">
-        <v>3.513771408818428</v>
+        <v>0.7369420707503878</v>
       </c>
       <c r="G21">
-        <v>0.0007095463586167842</v>
+        <v>0.0007437257231597272</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.77708161611416</v>
+        <v>1.883503363258598</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.036858516260224</v>
+        <v>6.468291637405741</v>
       </c>
       <c r="C22">
-        <v>1.939973107818844</v>
+        <v>1.71599369753892</v>
       </c>
       <c r="D22">
-        <v>0.02386273649438664</v>
+        <v>0.06500821190233097</v>
       </c>
       <c r="E22">
-        <v>2.962459056302379</v>
+        <v>2.76566328394901</v>
       </c>
       <c r="F22">
-        <v>3.828393183286494</v>
+        <v>0.7974113547351038</v>
       </c>
       <c r="G22">
-        <v>0.0007005056637822963</v>
+        <v>0.0007391860033660567</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.026556590291719</v>
+        <v>2.038988414660309</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.7380735867319</v>
+        <v>6.225432000269564</v>
       </c>
       <c r="C23">
-        <v>1.858517861074233</v>
+        <v>1.65431225827507</v>
       </c>
       <c r="D23">
-        <v>0.02287691950746762</v>
+        <v>0.06276995956054066</v>
       </c>
       <c r="E23">
-        <v>2.818750938612908</v>
+        <v>2.645172295040652</v>
       </c>
       <c r="F23">
-        <v>3.658573950291697</v>
+        <v>0.7647936384224892</v>
       </c>
       <c r="G23">
-        <v>0.0007053437984808785</v>
+        <v>0.0007416065873034522</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.891820564103227</v>
+        <v>1.954853820018513</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.645028929489229</v>
+        <v>5.314252094415224</v>
       </c>
       <c r="C24">
-        <v>1.560911683496158</v>
+        <v>1.422610659040743</v>
       </c>
       <c r="D24">
-        <v>0.02001877273859165</v>
+        <v>0.05438184730274997</v>
       </c>
       <c r="E24">
-        <v>2.30799244268718</v>
+        <v>2.204952766859634</v>
       </c>
       <c r="F24">
-        <v>3.053372551285491</v>
+        <v>0.6483618008776091</v>
       </c>
       <c r="G24">
-        <v>0.0007234428185273706</v>
+        <v>0.0007508363954646768</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.413223471517526</v>
+        <v>1.659930959915158</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.526020654249464</v>
+        <v>4.345162895400847</v>
       </c>
       <c r="C25">
-        <v>1.256557504242153</v>
+        <v>1.175662098009639</v>
       </c>
       <c r="D25">
-        <v>0.01830282226549684</v>
+        <v>0.04547296341512208</v>
       </c>
       <c r="E25">
-        <v>1.807742114258389</v>
+        <v>1.756397161168351</v>
       </c>
       <c r="F25">
-        <v>2.461309980844874</v>
+        <v>0.5352944310287526</v>
       </c>
       <c r="G25">
-        <v>0.00074280676543536</v>
+        <v>0.0007609863970889987</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.947654670131584</v>
+        <v>1.383668787425222</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.639297129245051</v>
+        <v>3.539241570903073</v>
       </c>
       <c r="C2">
-        <v>0.9954155328274794</v>
+        <v>1.122628695658705</v>
       </c>
       <c r="D2">
-        <v>0.03898913623710598</v>
+        <v>0.06743747787973575</v>
       </c>
       <c r="E2">
-        <v>1.441922359377998</v>
+        <v>1.425759666075038</v>
       </c>
       <c r="F2">
-        <v>0.4605004832323445</v>
+        <v>0.28252555147251</v>
       </c>
       <c r="G2">
-        <v>0.0007686809951868507</v>
+        <v>0.180951111183596</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01263994860005679</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.152840856897015</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.07827442573570043</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,42 +466,48 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.208600237614888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.6551333665987045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.163926660293214</v>
+        <v>3.088166292576489</v>
       </c>
       <c r="C3">
-        <v>0.8738301893889968</v>
+        <v>0.9929376176527001</v>
       </c>
       <c r="D3">
-        <v>0.03462429524202548</v>
+        <v>0.05914163768954239</v>
       </c>
       <c r="E3">
-        <v>1.235854890260796</v>
+        <v>1.225644917756583</v>
       </c>
       <c r="F3">
-        <v>0.4140919297068777</v>
+        <v>0.2585859057208424</v>
       </c>
       <c r="G3">
-        <v>0.0007740569087990035</v>
+        <v>0.1649678286298197</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.009570750203072187</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1515805747589312</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.0882456637128417</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,42 +519,48 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.104349497267947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.6182379374554898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873012578389364</v>
+        <v>2.810868332028804</v>
       </c>
       <c r="C4">
-        <v>0.7993378641015738</v>
+        <v>0.9137831393069291</v>
       </c>
       <c r="D4">
-        <v>0.03195374705863685</v>
+        <v>0.0540627173472501</v>
       </c>
       <c r="E4">
-        <v>1.112018506115746</v>
+        <v>1.104824688951965</v>
       </c>
       <c r="F4">
-        <v>0.3874158420567042</v>
+        <v>0.2446050726126288</v>
       </c>
       <c r="G4">
-        <v>0.0007774440430512226</v>
+        <v>0.1558119338942348</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.007882399970227993</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1512295479886632</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.09486692133636598</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,42 +572,48 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.0464774109318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.5978550872718955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754637414378806</v>
+        <v>2.697729379299687</v>
       </c>
       <c r="C5">
-        <v>0.7690066449737571</v>
+        <v>0.8829903390058007</v>
       </c>
       <c r="D5">
-        <v>0.03086722398403907</v>
+        <v>0.05206315477991552</v>
       </c>
       <c r="E5">
-        <v>1.062125557461087</v>
+        <v>1.056022939986406</v>
       </c>
       <c r="F5">
-        <v>0.3769626004365563</v>
+        <v>0.238709924633639</v>
       </c>
       <c r="G5">
-        <v>0.0007788469445050105</v>
+        <v>0.1518884000286533</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.007288625310640562</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1510040502958816</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.09756511314070249</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,42 +625,48 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.024306193568918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.5889659096902733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.734989976010297</v>
+        <v>2.67889718830628</v>
       </c>
       <c r="C6">
-        <v>0.7639712490242232</v>
+        <v>0.8795478985208831</v>
       </c>
       <c r="D6">
-        <v>0.03068689589297691</v>
+        <v>0.05181337490430593</v>
       </c>
       <c r="E6">
-        <v>1.05387249602056</v>
+        <v>1.047937817457097</v>
       </c>
       <c r="F6">
-        <v>0.3752509494558538</v>
+        <v>0.2372951815670206</v>
       </c>
       <c r="G6">
-        <v>0.0007790812866859769</v>
+        <v>0.1508253925024263</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.007260620953996266</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1507492133783046</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.09787571014952068</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,42 +678,48 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.020706307984739</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.5861619842845016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871415508127086</v>
+        <v>2.809237559960536</v>
       </c>
       <c r="C7">
-        <v>0.7989287250678103</v>
+        <v>0.9179276326563581</v>
       </c>
       <c r="D7">
-        <v>0.03193908754555963</v>
+        <v>0.05426051371828322</v>
       </c>
       <c r="E7">
-        <v>1.111343450545817</v>
+        <v>1.104147919518496</v>
       </c>
       <c r="F7">
-        <v>0.3872732262943899</v>
+        <v>0.2433071488400032</v>
       </c>
       <c r="G7">
-        <v>0.0007774628703091108</v>
+        <v>0.1546095448612803</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.008045567643023332</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1506167781704804</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.09451071552676726</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,42 +731,48 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.046172851185815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.5940212655458197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.475146169237291</v>
+        <v>3.383626685024979</v>
       </c>
       <c r="C8">
-        <v>0.9534495003954078</v>
+        <v>1.083906196799859</v>
       </c>
       <c r="D8">
-        <v>0.03748176335503928</v>
+        <v>0.06487418542774037</v>
       </c>
       <c r="E8">
-        <v>1.370245579812007</v>
+        <v>1.356260298701329</v>
       </c>
       <c r="F8">
-        <v>0.4440963412042862</v>
+        <v>0.272499885399462</v>
       </c>
       <c r="G8">
-        <v>0.0007705172717569716</v>
+        <v>0.1737731345508635</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.01173967498051365</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1515117558603478</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.08110159981268161</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,42 +784,48 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.171298389780702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.6370064241914122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.670153159864242</v>
+        <v>4.508662087239145</v>
       </c>
       <c r="C9">
-        <v>1.258541205769177</v>
+        <v>1.405590276312239</v>
       </c>
       <c r="D9">
-        <v>0.04845951825788575</v>
+        <v>0.08542364278427783</v>
       </c>
       <c r="E9">
-        <v>1.904628270821078</v>
+        <v>1.870811575183637</v>
       </c>
       <c r="F9">
-        <v>0.5719243957679723</v>
+        <v>0.3383079431806593</v>
       </c>
       <c r="G9">
-        <v>0.0007575363395386711</v>
+        <v>0.2193068106883231</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.02051370187536428</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.157999299137991</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.05974436718739629</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,42 +837,48 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.47185203281046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.7480022097496999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.560268806891031</v>
+        <v>5.336059791811806</v>
       </c>
       <c r="C10">
-        <v>1.485214488906252</v>
+        <v>1.648093290990573</v>
       </c>
       <c r="D10">
-        <v>0.05664530721050909</v>
+        <v>0.1007655270491057</v>
       </c>
       <c r="E10">
-        <v>2.322005527160314</v>
+        <v>2.267082536525223</v>
       </c>
       <c r="F10">
-        <v>0.678858643079522</v>
+        <v>0.390957410193586</v>
       </c>
       <c r="G10">
-        <v>0.0007483187425689126</v>
+        <v>0.2567961974062882</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02846534576096982</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1651310096613088</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0469309506203226</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,42 +890,48 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.736287612921245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.8430186871186152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.969211083351581</v>
+        <v>5.712933562453884</v>
       </c>
       <c r="C11">
-        <v>1.58920392041847</v>
+        <v>1.767326406086454</v>
       </c>
       <c r="D11">
-        <v>0.06040982474318923</v>
+        <v>0.1081665709994724</v>
       </c>
       <c r="E11">
-        <v>2.519515414215093</v>
+        <v>2.452791768622461</v>
       </c>
       <c r="F11">
-        <v>0.7310970168232984</v>
+        <v>0.4142266786598796</v>
       </c>
       <c r="G11">
-        <v>0.0007441769524360651</v>
+        <v>0.2732227835795129</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.03275221656875527</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1680839084916528</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.041324360476656</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,42 +943,48 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.868589470172623</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8842938777636391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.124773827319018</v>
+        <v>5.855876551611402</v>
       </c>
       <c r="C12">
-        <v>1.628738126228541</v>
+        <v>1.808526041976961</v>
       </c>
       <c r="D12">
-        <v>0.06184261659727497</v>
+        <v>0.1107726284607793</v>
       </c>
       <c r="E12">
-        <v>2.59562948098278</v>
+        <v>2.524073224550619</v>
       </c>
       <c r="F12">
-        <v>0.75146764550135</v>
+        <v>0.4243098933164262</v>
       </c>
       <c r="G12">
-        <v>0.0007426142563991545</v>
+        <v>0.2806424712876492</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.03429265244883339</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1698312157549537</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.03962045904245226</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,42 +996,48 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.920657000486727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.9037822949233316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.091237065251903</v>
+        <v>5.825103677025595</v>
       </c>
       <c r="C13">
-        <v>1.620216287773133</v>
+        <v>1.798808770187122</v>
       </c>
       <c r="D13">
-        <v>0.06153369239733308</v>
+        <v>0.1101700646378703</v>
       </c>
       <c r="E13">
-        <v>2.579174270918713</v>
+        <v>2.508682518480768</v>
       </c>
       <c r="F13">
-        <v>0.747053019755711</v>
+        <v>0.4223417126584295</v>
       </c>
       <c r="G13">
-        <v>0.0007429505858455573</v>
+        <v>0.2792355116005041</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.03392567643361488</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1695543930152468</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.04004058504575259</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,42 +1049,48 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.909351657525747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9001983625155674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.98199441198517</v>
+        <v>5.724698725003691</v>
       </c>
       <c r="C14">
-        <v>1.592453118870594</v>
+        <v>1.770357344620777</v>
       </c>
       <c r="D14">
-        <v>0.06052754737640242</v>
+        <v>0.1083634316410951</v>
       </c>
       <c r="E14">
-        <v>2.525749484437711</v>
+        <v>2.458638645087206</v>
       </c>
       <c r="F14">
-        <v>0.7327606687664314</v>
+        <v>0.415142411611896</v>
       </c>
       <c r="G14">
-        <v>0.0007440482843729558</v>
+        <v>0.273914122127195</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.03286362090574713</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1682698211007647</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.04120667859214944</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,42 +1102,48 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.872832176201626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.8861570252239801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.915175981731011</v>
+        <v>5.663179182554302</v>
       </c>
       <c r="C15">
-        <v>1.575468599796352</v>
+        <v>1.754598437561242</v>
       </c>
       <c r="D15">
-        <v>0.05991224352290203</v>
+        <v>0.1073383322206212</v>
       </c>
       <c r="E15">
-        <v>2.493204529720103</v>
+        <v>2.428101876387274</v>
       </c>
       <c r="F15">
-        <v>0.7240852042093451</v>
+        <v>0.4103412955707384</v>
       </c>
       <c r="G15">
-        <v>0.000744721346750212</v>
+        <v>0.270287376533318</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.03228935723454196</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1672916573156584</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.04182124082483796</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,42 +1155,48 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.850726843422706</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8763770794041932</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.533634919427698</v>
+        <v>5.31113230414195</v>
       </c>
       <c r="C16">
-        <v>1.478438606472082</v>
+        <v>1.654122617010216</v>
       </c>
       <c r="D16">
-        <v>0.05640022152640967</v>
+        <v>0.1009600205671859</v>
       </c>
       <c r="E16">
-        <v>2.309269822762218</v>
+        <v>2.254990236598857</v>
       </c>
       <c r="F16">
-        <v>0.6755230432628565</v>
+        <v>0.3859259418178596</v>
       </c>
       <c r="G16">
-        <v>0.0007485903130272879</v>
+        <v>0.2524214643211096</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.02871021334439394</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1632142318948482</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.04631877654618144</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,42 +1208,48 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.727902952230664</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8297137638027436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.300687919728375</v>
+        <v>5.095361750785855</v>
       </c>
       <c r="C17">
-        <v>1.419157990854501</v>
+        <v>1.592715208471361</v>
       </c>
       <c r="D17">
-        <v>0.05425707574407568</v>
+        <v>0.09705426990187505</v>
       </c>
       <c r="E17">
-        <v>2.198537140315693</v>
+        <v>2.150296437796698</v>
       </c>
       <c r="F17">
-        <v>0.6467009445062075</v>
+        <v>0.3713156579228141</v>
       </c>
       <c r="G17">
-        <v>0.0007509758215054918</v>
+        <v>0.2418113797076415</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0266262339542811</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1609025709299559</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.04928565344029057</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,42 +1261,48 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.655792619796131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.8022245530228531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.167073336104124</v>
+        <v>4.971410667827001</v>
       </c>
       <c r="C18">
-        <v>1.385141676507715</v>
+        <v>1.553298664498357</v>
       </c>
       <c r="D18">
-        <v>0.05302813720697941</v>
+        <v>0.09460531579814813</v>
       </c>
       <c r="E18">
-        <v>2.135550865997402</v>
+        <v>2.090609166931699</v>
       </c>
       <c r="F18">
-        <v>0.630456663852371</v>
+        <v>0.364109293310598</v>
       </c>
       <c r="G18">
-        <v>0.0007523528468003891</v>
+        <v>0.2368347563195812</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.02527132645403984</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1601652960268254</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.05136466650684834</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,42 +1314,48 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.615430967274676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.7900399475668394</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.121893730647571</v>
+        <v>4.92937991809498</v>
       </c>
       <c r="C19">
-        <v>1.373637281602214</v>
+        <v>1.543185671199694</v>
       </c>
       <c r="D19">
-        <v>0.05261264338034977</v>
+        <v>0.09393454338088247</v>
       </c>
       <c r="E19">
-        <v>2.114339516159731</v>
+        <v>2.070465951684682</v>
       </c>
       <c r="F19">
-        <v>0.625011828509713</v>
+        <v>0.3608657339267225</v>
       </c>
       <c r="G19">
-        <v>0.000752819980718879</v>
+        <v>0.2343947445187311</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.02496591539195769</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1595211679995003</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05184964774752121</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,42 +1367,48 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.601949714868738</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7834877745791289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.325446324771519</v>
+        <v>5.118331696395785</v>
       </c>
       <c r="C20">
-        <v>1.425459995105768</v>
+        <v>1.598915630234558</v>
       </c>
       <c r="D20">
-        <v>0.05448482054286785</v>
+        <v>0.09745368693657497</v>
       </c>
       <c r="E20">
-        <v>2.210250434711114</v>
+        <v>2.161389521726278</v>
       </c>
       <c r="F20">
-        <v>0.649734100568125</v>
+        <v>0.3729414499411519</v>
       </c>
       <c r="G20">
-        <v>0.0007507213798153807</v>
+        <v>0.2430069331754297</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02682846623576651</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1611829200749639</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.04898549783249262</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,42 +1420,48 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.66335190917593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.8053627650773478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.014061404798383</v>
+        <v>5.754079447857009</v>
       </c>
       <c r="C21">
-        <v>1.600603352844814</v>
+        <v>1.7833988839472</v>
       </c>
       <c r="D21">
-        <v>0.06082286766924483</v>
+        <v>0.1091239752702933</v>
       </c>
       <c r="E21">
-        <v>2.541403832657394</v>
+        <v>2.473283202411594</v>
       </c>
       <c r="F21">
-        <v>0.7369420707503878</v>
+        <v>0.416056070686281</v>
       </c>
       <c r="G21">
-        <v>0.0007437257231597272</v>
+        <v>0.2743487048888227</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03336729510663794</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1680584672032381</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.04053297718907611</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,42 +1473,48 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.883503363258598</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0.8866567492574688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.468291637405741</v>
+        <v>6.170524314517252</v>
       </c>
       <c r="C22">
-        <v>1.71599369753892</v>
+        <v>1.898855197634077</v>
       </c>
       <c r="D22">
-        <v>0.06500821190233097</v>
+        <v>0.11648523839294</v>
       </c>
       <c r="E22">
-        <v>2.76566328394901</v>
+        <v>2.682685290096586</v>
       </c>
       <c r="F22">
-        <v>0.7974113547351038</v>
+        <v>0.4470489930914425</v>
       </c>
       <c r="G22">
-        <v>0.0007391860033660567</v>
+        <v>0.2974980354298253</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.03778456747914305</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1739576474352589</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.03614501528476222</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,42 +1526,48 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.038988414660309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0.9483741861811552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.225432000269564</v>
+        <v>5.948301072650054</v>
       </c>
       <c r="C23">
-        <v>1.65431225827507</v>
+        <v>1.831496433766631</v>
       </c>
       <c r="D23">
-        <v>0.06276995956054066</v>
+        <v>0.1122763690068496</v>
       </c>
       <c r="E23">
-        <v>2.645172295040652</v>
+        <v>2.570399872995807</v>
       </c>
       <c r="F23">
-        <v>0.7647936384224892</v>
+        <v>0.4318220570066913</v>
       </c>
       <c r="G23">
-        <v>0.0007416065873034522</v>
+        <v>0.286375822556721</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.03517274852513275</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1714511691295399</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.03881366422412036</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,42 +1579,48 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.954853820018513</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0.9193930049792129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.314252094415224</v>
+        <v>5.108146675470834</v>
       </c>
       <c r="C24">
-        <v>1.422610659040743</v>
+        <v>1.587276997220215</v>
       </c>
       <c r="D24">
-        <v>0.05438184730274997</v>
+        <v>0.09683945454712273</v>
       </c>
       <c r="E24">
-        <v>2.204952766859634</v>
+        <v>2.156421051406554</v>
       </c>
       <c r="F24">
-        <v>0.6483618008776091</v>
+        <v>0.3744715043760891</v>
       </c>
       <c r="G24">
-        <v>0.0007508363954646768</v>
+        <v>0.2445957259393623</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02636508846275021</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1621696412067379</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.04975761560188374</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,42 +1632,48 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.659930959915158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.8107891942881764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.345162895400847</v>
+        <v>4.204103579032392</v>
       </c>
       <c r="C25">
-        <v>1.175662098009639</v>
+        <v>1.326451153264031</v>
       </c>
       <c r="D25">
-        <v>0.04547296341512208</v>
+        <v>0.08026142367437217</v>
       </c>
       <c r="E25">
-        <v>1.756397161168351</v>
+        <v>1.728837821734658</v>
       </c>
       <c r="F25">
-        <v>0.5352944310287526</v>
+        <v>0.3175177829619358</v>
       </c>
       <c r="G25">
-        <v>0.0007609863970889987</v>
+        <v>0.2041821983398009</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01821670460331148</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1547209171283228</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.06436864055096869</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.383668787425222</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.7088427346932207</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.539241570903073</v>
+        <v>3.5307446067211</v>
       </c>
       <c r="C2">
-        <v>1.122628695658705</v>
+        <v>1.128543722141018</v>
       </c>
       <c r="D2">
-        <v>0.06743747787973575</v>
+        <v>0.06835957395333025</v>
       </c>
       <c r="E2">
-        <v>1.425759666075038</v>
+        <v>1.422942981966585</v>
       </c>
       <c r="F2">
-        <v>0.28252555147251</v>
+        <v>0.2824665165207847</v>
       </c>
       <c r="G2">
-        <v>0.180951111183596</v>
+        <v>0.1707631702393329</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.01263994860005679</v>
+        <v>0.01147069503937725</v>
       </c>
       <c r="J2">
-        <v>0.152840856897015</v>
+        <v>0.198991946887368</v>
       </c>
       <c r="K2">
-        <v>0.07827442573570043</v>
+        <v>0.08155219133204472</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.07735539613682274</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.005868868019760054</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.6551333665987045</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.6591902968729357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.088166292576489</v>
+        <v>3.082517313462347</v>
       </c>
       <c r="C3">
-        <v>0.9929376176527001</v>
+        <v>0.989584532113156</v>
       </c>
       <c r="D3">
-        <v>0.05914163768954239</v>
+        <v>0.05959221519640323</v>
       </c>
       <c r="E3">
-        <v>1.225644917756583</v>
+        <v>1.223697881176349</v>
       </c>
       <c r="F3">
-        <v>0.2585859057208424</v>
+        <v>0.2606483467449223</v>
       </c>
       <c r="G3">
-        <v>0.1649678286298197</v>
+        <v>0.1551730277202097</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009570750203072187</v>
+        <v>0.008867671760782514</v>
       </c>
       <c r="J3">
-        <v>0.1515805747589312</v>
+        <v>0.1978832865775075</v>
       </c>
       <c r="K3">
-        <v>0.0882456637128417</v>
+        <v>0.09125781814339007</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08302394938813951</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.007991660897081115</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.6182379374554898</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.628190047157716</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.810868332028804</v>
+        <v>2.806831498313102</v>
       </c>
       <c r="C4">
-        <v>0.9137831393069291</v>
+        <v>0.9049942617771762</v>
       </c>
       <c r="D4">
-        <v>0.0540627173472501</v>
+        <v>0.05423517441725068</v>
       </c>
       <c r="E4">
-        <v>1.104824688951965</v>
+        <v>1.103331682573597</v>
       </c>
       <c r="F4">
-        <v>0.2446050726126288</v>
+        <v>0.2478260039321185</v>
       </c>
       <c r="G4">
-        <v>0.1558119338942348</v>
+        <v>0.1462356614061946</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.007882399970227993</v>
+        <v>0.007430827262209228</v>
       </c>
       <c r="J4">
-        <v>0.1512295479886632</v>
+        <v>0.1974028295754522</v>
       </c>
       <c r="K4">
-        <v>0.09486692133636598</v>
+        <v>0.09763391565883861</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08682979908418176</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.009798813912533344</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5978550872718955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.6109568238465783</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.697729379299687</v>
+        <v>2.694320606129679</v>
       </c>
       <c r="C5">
-        <v>0.8829903390058007</v>
+        <v>0.8720149134549047</v>
       </c>
       <c r="D5">
-        <v>0.05206315477991552</v>
+        <v>0.05212321117248564</v>
       </c>
       <c r="E5">
-        <v>1.056022939986406</v>
+        <v>1.054698216306704</v>
       </c>
       <c r="F5">
-        <v>0.238709924633639</v>
+        <v>0.242376424806281</v>
       </c>
       <c r="G5">
-        <v>0.1518884000286533</v>
+        <v>0.1424059259671679</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.007288625310640562</v>
+        <v>0.006944839662510027</v>
       </c>
       <c r="J5">
-        <v>0.1510040502958816</v>
+        <v>0.1970679707621272</v>
       </c>
       <c r="K5">
-        <v>0.09756511314070249</v>
+        <v>0.1002132526146857</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08836464098944496</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01066339880443135</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5889659096902733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.6032612459525524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.67889718830628</v>
+        <v>2.675591625946367</v>
       </c>
       <c r="C6">
-        <v>0.8795478985208831</v>
+        <v>0.8681698013601533</v>
       </c>
       <c r="D6">
-        <v>0.05181337490430593</v>
+        <v>0.05185254326305255</v>
       </c>
       <c r="E6">
-        <v>1.047937817457097</v>
+        <v>1.046640220365404</v>
       </c>
       <c r="F6">
-        <v>0.2372951815670206</v>
+        <v>0.2410432893849546</v>
       </c>
       <c r="G6">
-        <v>0.1508253925024263</v>
+        <v>0.1413720788855173</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.007260620953996266</v>
+        <v>0.006951843604678487</v>
       </c>
       <c r="J6">
-        <v>0.1507492133783046</v>
+        <v>0.1967871223111501</v>
       </c>
       <c r="K6">
-        <v>0.09787571014952068</v>
+        <v>0.1005036954061174</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08850639920181713</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.01082049003925167</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.5861619842845016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.6006761232697215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.809237559960536</v>
+        <v>2.805159291444056</v>
       </c>
       <c r="C7">
-        <v>0.9179276326563581</v>
+        <v>0.9083817175842626</v>
       </c>
       <c r="D7">
-        <v>0.05426051371828322</v>
+        <v>0.05456002787564529</v>
       </c>
       <c r="E7">
-        <v>1.104147919518496</v>
+        <v>1.102639008458667</v>
       </c>
       <c r="F7">
-        <v>0.2433071488400032</v>
+        <v>0.2458554423025205</v>
       </c>
       <c r="G7">
-        <v>0.1546095448612803</v>
+        <v>0.1472728200712226</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.008045567643023332</v>
+        <v>0.007634338658541573</v>
       </c>
       <c r="J7">
-        <v>0.1506167781704804</v>
+        <v>0.1933748853489732</v>
       </c>
       <c r="K7">
-        <v>0.09451071552676726</v>
+        <v>0.09716294720694663</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08644743695399804</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.009817437914702798</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5940212655458197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.605085445895682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.383626685024979</v>
+        <v>3.375971634588552</v>
       </c>
       <c r="C8">
-        <v>1.083906196799859</v>
+        <v>1.084382675848786</v>
       </c>
       <c r="D8">
-        <v>0.06487418542774037</v>
+        <v>0.06607927136782621</v>
       </c>
       <c r="E8">
-        <v>1.356260298701329</v>
+        <v>1.353691459499345</v>
       </c>
       <c r="F8">
-        <v>0.272499885399462</v>
+        <v>0.2709006271746617</v>
       </c>
       <c r="G8">
-        <v>0.1737731345508635</v>
+        <v>0.1711635472436015</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01173967498051365</v>
+        <v>0.01077181478953193</v>
       </c>
       <c r="J8">
-        <v>0.1515117558603478</v>
+        <v>0.1867005846193308</v>
       </c>
       <c r="K8">
-        <v>0.08110159981268161</v>
+        <v>0.0839637577258916</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.07866350890801588</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.006407288876872141</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6370064241914122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.6362729823244706</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.508662087239145</v>
+        <v>4.492844152854332</v>
       </c>
       <c r="C9">
-        <v>1.405590276312239</v>
+        <v>1.430116034578134</v>
       </c>
       <c r="D9">
-        <v>0.08542364278427783</v>
+        <v>0.08801135065425569</v>
       </c>
       <c r="E9">
-        <v>1.870811575183637</v>
+        <v>1.865415570067356</v>
       </c>
       <c r="F9">
-        <v>0.3383079431806593</v>
+        <v>0.329833122015323</v>
       </c>
       <c r="G9">
-        <v>0.2193068106883231</v>
+        <v>0.2176730761470225</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.02051370187536428</v>
+        <v>0.01808102395427369</v>
       </c>
       <c r="J9">
-        <v>0.157999299137991</v>
+        <v>0.1883677285952032</v>
       </c>
       <c r="K9">
-        <v>0.05974436718739629</v>
+        <v>0.06269405219945501</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06677000809285882</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.00396246244719789</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.7480022097496999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.7276104671756372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.336059791811806</v>
+        <v>5.312739720621948</v>
       </c>
       <c r="C10">
-        <v>1.648093290990573</v>
+        <v>1.687704419511135</v>
       </c>
       <c r="D10">
-        <v>0.1007655270491057</v>
+        <v>0.1052550824935139</v>
       </c>
       <c r="E10">
-        <v>2.267082536525223</v>
+        <v>2.258641936440128</v>
       </c>
       <c r="F10">
-        <v>0.390957410193586</v>
+        <v>0.372403591694578</v>
       </c>
       <c r="G10">
-        <v>0.2567961974062882</v>
+        <v>0.2693319133994976</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.02846534576096982</v>
+        <v>0.02466082926693325</v>
       </c>
       <c r="J10">
-        <v>0.1651310096613088</v>
+        <v>0.1723963738518108</v>
       </c>
       <c r="K10">
-        <v>0.0469309506203226</v>
+        <v>0.04892270035924629</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.05943888272585829</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.004656368120723897</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8430186871186152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.7929501172583855</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.712933562453884</v>
+        <v>5.685284102355979</v>
       </c>
       <c r="C11">
-        <v>1.767326406086454</v>
+        <v>1.807240927486589</v>
       </c>
       <c r="D11">
-        <v>0.1081665709994724</v>
+        <v>0.1150409000762949</v>
       </c>
       <c r="E11">
-        <v>2.452791768622461</v>
+        <v>2.442370324501695</v>
       </c>
       <c r="F11">
-        <v>0.4142266786598796</v>
+        <v>0.3836566467483848</v>
       </c>
       <c r="G11">
-        <v>0.2732227835795129</v>
+        <v>0.3172445738958345</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.03275221656875527</v>
+        <v>0.02823686062917563</v>
       </c>
       <c r="J11">
-        <v>0.1680839084916528</v>
+        <v>0.1374558069419791</v>
       </c>
       <c r="K11">
-        <v>0.041324360476656</v>
+        <v>0.04204031715355327</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.05618497304116898</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.004922741170195089</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8842938777636391</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7987327764859771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.855876551611402</v>
+        <v>5.826457549210488</v>
       </c>
       <c r="C12">
-        <v>1.808526041976961</v>
+        <v>1.847766034923268</v>
       </c>
       <c r="D12">
-        <v>0.1107726284607793</v>
+        <v>0.1187586905560494</v>
       </c>
       <c r="E12">
-        <v>2.524073224550619</v>
+        <v>2.51280721809259</v>
       </c>
       <c r="F12">
-        <v>0.4243098933164262</v>
+        <v>0.3881690385014593</v>
       </c>
       <c r="G12">
-        <v>0.2806424712876492</v>
+        <v>0.3403563704626151</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.03429265244883339</v>
+        <v>0.02943818010941524</v>
       </c>
       <c r="J12">
-        <v>0.1698312157549537</v>
+        <v>0.1232879219786582</v>
       </c>
       <c r="K12">
-        <v>0.03962045904245226</v>
+        <v>0.03969658203833948</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05510446867637153</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.005152905488671422</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.9037822949233316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.8017622713163348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.825103677025595</v>
+        <v>5.796070358419001</v>
       </c>
       <c r="C13">
-        <v>1.798808770187122</v>
+        <v>1.838243320140066</v>
       </c>
       <c r="D13">
-        <v>0.1101700646378703</v>
+        <v>0.1179069385000133</v>
       </c>
       <c r="E13">
-        <v>2.508682518480768</v>
+        <v>2.49760252143615</v>
       </c>
       <c r="F13">
-        <v>0.4223417126584295</v>
+        <v>0.3874299513009802</v>
       </c>
       <c r="G13">
-        <v>0.2792355116005041</v>
+        <v>0.3353980766807751</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.03392567643361488</v>
+        <v>0.02913553661863055</v>
       </c>
       <c r="J13">
-        <v>0.1695543930152468</v>
+        <v>0.1264286325202235</v>
       </c>
       <c r="K13">
-        <v>0.04004058504575259</v>
+        <v>0.04024203272420568</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.05534482410796782</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.005124371985591125</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9001983625155674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.801796029355998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.724698725003691</v>
+        <v>5.696905788521406</v>
       </c>
       <c r="C14">
-        <v>1.770357344620777</v>
+        <v>1.810238034187648</v>
       </c>
       <c r="D14">
-        <v>0.1083634316410951</v>
+        <v>0.1153249221241452</v>
       </c>
       <c r="E14">
-        <v>2.458638645087206</v>
+        <v>2.448149568457353</v>
       </c>
       <c r="F14">
-        <v>0.415142411611896</v>
+        <v>0.3841279337140833</v>
       </c>
       <c r="G14">
-        <v>0.273914122127195</v>
+        <v>0.3191493072348237</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.03286362090574713</v>
+        <v>0.02831665213218493</v>
       </c>
       <c r="J14">
-        <v>0.1682698211007647</v>
+        <v>0.1363348425363355</v>
       </c>
       <c r="K14">
-        <v>0.04120667859214944</v>
+        <v>0.04186532688539657</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.05609975783337218</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.004950511350683584</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.8861570252239801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7992774985672355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.663179182554302</v>
+        <v>5.636131497438669</v>
       </c>
       <c r="C15">
-        <v>1.754598437561242</v>
+        <v>1.794621193772059</v>
       </c>
       <c r="D15">
-        <v>0.1073383322206212</v>
+        <v>0.1138524059766297</v>
       </c>
       <c r="E15">
-        <v>2.428101876387274</v>
+        <v>2.417962625679579</v>
       </c>
       <c r="F15">
-        <v>0.4103412955707384</v>
+        <v>0.3816120064079271</v>
       </c>
       <c r="G15">
-        <v>0.270287376533318</v>
+        <v>0.309338061333662</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.03228935723454196</v>
+        <v>0.02790812378201402</v>
       </c>
       <c r="J15">
-        <v>0.1672916573156584</v>
+        <v>0.1421414150242697</v>
       </c>
       <c r="K15">
-        <v>0.04182124082483796</v>
+        <v>0.04277592984161327</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.05654588289182683</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.004804351966956943</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8763770794041932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.796278296094215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.31113230414195</v>
+        <v>5.288092466697947</v>
       </c>
       <c r="C16">
-        <v>1.654122617010216</v>
+        <v>1.693443680750363</v>
       </c>
       <c r="D16">
-        <v>0.1009600205671859</v>
+        <v>0.1053145878894242</v>
       </c>
       <c r="E16">
-        <v>2.254990236598857</v>
+        <v>2.24666981753218</v>
       </c>
       <c r="F16">
-        <v>0.3859259418178596</v>
+        <v>0.3682057334018083</v>
       </c>
       <c r="G16">
-        <v>0.2524214643211096</v>
+        <v>0.2634170305296095</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.02871021334439394</v>
+        <v>0.02510448394188192</v>
       </c>
       <c r="J16">
-        <v>0.1632142318948482</v>
+        <v>0.1728846407238294</v>
       </c>
       <c r="K16">
-        <v>0.04631877654618144</v>
+        <v>0.0485689646438674</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.05937888524507517</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.004292646372864972</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8297137638027436</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.782220892846567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.095361750785855</v>
+        <v>5.074561657507559</v>
       </c>
       <c r="C17">
-        <v>1.592715208471361</v>
+        <v>1.630192052144366</v>
       </c>
       <c r="D17">
-        <v>0.09705426990187505</v>
+        <v>0.1004238240961826</v>
       </c>
       <c r="E17">
-        <v>2.150296437796698</v>
+        <v>2.142939960333024</v>
       </c>
       <c r="F17">
-        <v>0.3713156579228141</v>
+        <v>0.3586932890334182</v>
       </c>
       <c r="G17">
-        <v>0.2418113797076415</v>
+        <v>0.2414204133504612</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.0266262339542811</v>
+        <v>0.02345455615618253</v>
       </c>
       <c r="J17">
-        <v>0.1609025709299559</v>
+        <v>0.187155746758819</v>
       </c>
       <c r="K17">
-        <v>0.04928565344029057</v>
+        <v>0.05212965534468861</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06119956660578829</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.004034969926898668</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8022245530228531</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7698418953825268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.971410667827001</v>
+        <v>4.951817292303019</v>
       </c>
       <c r="C18">
-        <v>1.553298664498357</v>
+        <v>1.589267217857639</v>
       </c>
       <c r="D18">
-        <v>0.09460531579814813</v>
+        <v>0.09752839609006969</v>
       </c>
       <c r="E18">
-        <v>2.090609166931699</v>
+        <v>2.083755580271088</v>
       </c>
       <c r="F18">
-        <v>0.364109293310598</v>
+        <v>0.3537896511505068</v>
       </c>
       <c r="G18">
-        <v>0.2368347563195812</v>
+        <v>0.2317574208944393</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.02527132645403984</v>
+        <v>0.02228036525945676</v>
       </c>
       <c r="J18">
-        <v>0.1601652960268254</v>
+        <v>0.1937346630388461</v>
       </c>
       <c r="K18">
-        <v>0.05136466650684834</v>
+        <v>0.05442870553074908</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0623702636290564</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.004008518398563865</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7900399475668394</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.7644549956354183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.92937991809498</v>
+        <v>4.910185316633374</v>
       </c>
       <c r="C19">
-        <v>1.543185671199694</v>
+        <v>1.578525192739846</v>
       </c>
       <c r="D19">
-        <v>0.09393454338088247</v>
+        <v>0.09672324995825932</v>
       </c>
       <c r="E19">
-        <v>2.070465951684682</v>
+        <v>2.063775073841214</v>
       </c>
       <c r="F19">
-        <v>0.3608657339267225</v>
+        <v>0.3512631925357184</v>
       </c>
       <c r="G19">
-        <v>0.2343947445187311</v>
+        <v>0.2280696878126633</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.02496591539195769</v>
+        <v>0.02207505022886114</v>
       </c>
       <c r="J19">
-        <v>0.1595211679995003</v>
+        <v>0.1951850406939428</v>
       </c>
       <c r="K19">
-        <v>0.05184964774752121</v>
+        <v>0.05500913223599557</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.06269075048680151</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.003929015966787297</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7834877745791289</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7600342557765742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.118331696395785</v>
+        <v>5.097300954156935</v>
       </c>
       <c r="C20">
-        <v>1.598915630234558</v>
+        <v>1.636644252477254</v>
       </c>
       <c r="D20">
-        <v>0.09745368693657497</v>
+        <v>0.1009160627208985</v>
       </c>
       <c r="E20">
-        <v>2.161389521726278</v>
+        <v>2.15393573484684</v>
       </c>
       <c r="F20">
-        <v>0.3729414499411519</v>
+        <v>0.3598336808236482</v>
       </c>
       <c r="G20">
-        <v>0.2430069331754297</v>
+        <v>0.2436236690908018</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.02682846623576651</v>
+        <v>0.02360775913336877</v>
       </c>
       <c r="J20">
-        <v>0.1611829200749639</v>
+        <v>0.1858875041926211</v>
       </c>
       <c r="K20">
-        <v>0.04898549783249262</v>
+        <v>0.05177045582987994</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06101086811943413</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.004067744500883208</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.8053627650773478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.7715397650060112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.754079447857009</v>
+        <v>5.725736668026855</v>
       </c>
       <c r="C21">
-        <v>1.7833988839472</v>
+        <v>1.820748053077637</v>
       </c>
       <c r="D21">
-        <v>0.1091239752702933</v>
+        <v>0.1168426352419658</v>
       </c>
       <c r="E21">
-        <v>2.473283202411594</v>
+        <v>2.462512048967014</v>
       </c>
       <c r="F21">
-        <v>0.416056070686281</v>
+        <v>0.3814398400773626</v>
       </c>
       <c r="G21">
-        <v>0.2743487048888227</v>
+        <v>0.3317250660488469</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.03336729510663794</v>
+        <v>0.02877431530869323</v>
       </c>
       <c r="J21">
-        <v>0.1680584672032381</v>
+        <v>0.1246326155261457</v>
       </c>
       <c r="K21">
-        <v>0.04053297718907611</v>
+        <v>0.04086145447334211</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.05573218366728139</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.004723931392518033</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.8866567492574688</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.7891960335882686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.170524314517252</v>
+        <v>6.136988142470784</v>
       </c>
       <c r="C22">
-        <v>1.898855197634077</v>
+        <v>1.935050358903766</v>
       </c>
       <c r="D22">
-        <v>0.11648523839294</v>
+        <v>0.1273177331003978</v>
       </c>
       <c r="E22">
-        <v>2.682685290096586</v>
+        <v>2.669381909795092</v>
       </c>
       <c r="F22">
-        <v>0.4470489930914425</v>
+        <v>0.3968525157366614</v>
       </c>
       <c r="G22">
-        <v>0.2974980354298253</v>
+        <v>0.3996062076674036</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.03778456747914305</v>
+        <v>0.03213252366502761</v>
       </c>
       <c r="J22">
-        <v>0.1739576474352589</v>
+        <v>0.09259724308778061</v>
       </c>
       <c r="K22">
-        <v>0.03614501528476222</v>
+        <v>0.03465030375454425</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.05289512981368583</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.005713589457457147</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.9483741861811552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.8049382698592922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.948301072650054</v>
+        <v>5.917700028757565</v>
       </c>
       <c r="C23">
-        <v>1.831496433766631</v>
+        <v>1.870112821236944</v>
       </c>
       <c r="D23">
-        <v>0.1122763690068496</v>
+        <v>0.1210396278658692</v>
       </c>
       <c r="E23">
-        <v>2.570399872995807</v>
+        <v>2.558560173046359</v>
       </c>
       <c r="F23">
-        <v>0.4318220570066913</v>
+        <v>0.3917416581791855</v>
       </c>
       <c r="G23">
-        <v>0.286375822556721</v>
+        <v>0.3574549768216286</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.03517274852513275</v>
+        <v>0.03005064269063062</v>
       </c>
       <c r="J23">
-        <v>0.1714511691295399</v>
+        <v>0.114341802203306</v>
       </c>
       <c r="K23">
-        <v>0.03881366422412036</v>
+        <v>0.03837323441308538</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.05447372972047998</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.00540537304607458</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.9193930049792129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.8056933208928569</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.108146675470834</v>
+        <v>5.087211606106848</v>
       </c>
       <c r="C24">
-        <v>1.587276997220215</v>
+        <v>1.624991788858495</v>
       </c>
       <c r="D24">
-        <v>0.09683945454712273</v>
+        <v>0.1002656444051979</v>
       </c>
       <c r="E24">
-        <v>2.156421051406554</v>
+        <v>2.149009601179387</v>
       </c>
       <c r="F24">
-        <v>0.3744715043760891</v>
+        <v>0.3614829266398374</v>
       </c>
       <c r="G24">
-        <v>0.2445957259393623</v>
+        <v>0.2446821858175667</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.02636508846275021</v>
+        <v>0.0230592909146301</v>
       </c>
       <c r="J24">
-        <v>0.1621696412067379</v>
+        <v>0.1874936914967051</v>
       </c>
       <c r="K24">
-        <v>0.04975761560188374</v>
+        <v>0.05246692798842467</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06130043987149802</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.004266354724876464</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.8107891942881764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.777266371620172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.204103579032392</v>
+        <v>4.190756550402057</v>
       </c>
       <c r="C25">
-        <v>1.326451153264031</v>
+        <v>1.345037668218708</v>
       </c>
       <c r="D25">
-        <v>0.08026142367437217</v>
+        <v>0.08225939807142879</v>
       </c>
       <c r="E25">
-        <v>1.728837821734658</v>
+        <v>1.724358502636733</v>
       </c>
       <c r="F25">
-        <v>0.3175177829619358</v>
+        <v>0.3121438976682214</v>
       </c>
       <c r="G25">
-        <v>0.2041821983398009</v>
+        <v>0.1991644644146433</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01821670460331148</v>
+        <v>0.01632167032848031</v>
       </c>
       <c r="J25">
-        <v>0.1547209171283228</v>
+        <v>0.1913213337109454</v>
       </c>
       <c r="K25">
-        <v>0.06436864055096869</v>
+        <v>0.06759810805739619</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.06948144698477687</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.004038850305282171</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.7088427346932207</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.6975613930473088</v>
       </c>
     </row>
   </sheetData>
